--- a/config/9th_EBT_schema.xlsx
+++ b/config/9th_EBT_schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\transport_model_9th_edition\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\APERC\transport_model_9th_edition\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17941DF2-E5BB-43AD-9755-1CAAF0847948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB54108-0B61-467D-856C-8F7BB1D66EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{F61A5A6E-F35F-447D-A8FA-A636DA54EBA1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{F61A5A6E-F35F-447D-A8FA-A636DA54EBA1}"/>
   </bookViews>
   <sheets>
     <sheet name="9th_EBT_schema" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,8 @@
   <authors>
     <author>tc={14F28E3B-E27B-4F10-9E30-A35CE253D9B3}</author>
     <author>tc={A9F2DEF1-2471-4600-B89D-8CD286003292}</author>
+    <author>tc={1401914B-6CCC-4FE8-9067-F0BB6990A87E}</author>
+    <author>tc={27A3B664-367C-45E9-B56B-627DCB291BA1}</author>
   </authors>
   <commentList>
     <comment ref="H28" authorId="0" shapeId="0" xr:uid="{14F28E3B-E27B-4F10-9E30-A35CE253D9B3}">
@@ -63,12 +65,30 @@
 </t>
       </text>
     </comment>
+    <comment ref="I68" authorId="2" shapeId="0" xr:uid="{1401914B-6CCC-4FE8-9067-F0BB6990A87E}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Inserted new values
+</t>
+      </text>
+    </comment>
+    <comment ref="I70" authorId="3" shapeId="0" xr:uid="{27A3B664-367C-45E9-B56B-627DCB291BA1}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Inserted new values
+</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="376">
   <si>
     <t>Variables (fuels and sectors 'lined-up' in subsequent sheets)</t>
   </si>
@@ -1148,6 +1168,54 @@
   </si>
   <si>
     <t>16_x_efuel</t>
+  </si>
+  <si>
+    <t>15_02_02_06_two_wheeler_freight</t>
+  </si>
+  <si>
+    <t>15_02_02_06_01_diesel_engine</t>
+  </si>
+  <si>
+    <t>15_02_02_06_02_gasoline_engine</t>
+  </si>
+  <si>
+    <t>15_02_02_06_03_battery_ev</t>
+  </si>
+  <si>
+    <t>15_02_02_06_04_compressed_natual_gas</t>
+  </si>
+  <si>
+    <t>15_02_02_06_05_plugin_hybrid_ev_gasoline</t>
+  </si>
+  <si>
+    <t>15_02_02_06_06_plugin_hybrid_ev_diesel</t>
+  </si>
+  <si>
+    <t>15_02_01_06_07_liquified_petroleum_gas</t>
+  </si>
+  <si>
+    <t>15_02_01_02_08_fuel_cell_ev</t>
+  </si>
+  <si>
+    <t>15_02_01_03_08_fuel_cell_ev</t>
+  </si>
+  <si>
+    <t>15_02_01_04_08_fuel_cell_ev</t>
+  </si>
+  <si>
+    <t>15_02_02_01_08_fuel_cell_ev</t>
+  </si>
+  <si>
+    <t>15_02_02_02_08_fuel_cell_ev</t>
+  </si>
+  <si>
+    <t>15_02_02_03_08_fuel_cell_ev</t>
+  </si>
+  <si>
+    <t>15_02_02_04_08_fuel_cell_ev</t>
+  </si>
+  <si>
+    <t>15_02_01_01_08_fuel_cell_ev</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1250,10 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1222,6 +1290,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1235,7 +1309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1243,6 +1317,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1571,6 +1646,14 @@
     <text xml:space="preserve">Inserted new values
 </text>
   </threadedComment>
+  <threadedComment ref="I68" dT="2023-07-11T01:57:02.86" personId="{BA1659A9-4D52-4F46-B8E6-CECE8A23AF6D}" id="{1401914B-6CCC-4FE8-9067-F0BB6990A87E}">
+    <text xml:space="preserve">Inserted new values
+</text>
+  </threadedComment>
+  <threadedComment ref="I70" dT="2023-07-11T01:57:02.86" personId="{BA1659A9-4D52-4F46-B8E6-CECE8A23AF6D}" id="{27A3B664-367C-45E9-B56B-627DCB291BA1}">
+    <text xml:space="preserve">Inserted new values
+</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1578,29 +1661,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCBC1CD-CC2F-455C-8B9B-5A132B98DEED}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="9" max="9" width="40.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1629,7 +1712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1658,7 +1741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1687,7 +1770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -1713,7 +1796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1739,7 +1822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -1765,7 +1848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>52</v>
       </c>
@@ -1791,7 +1874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>60</v>
       </c>
@@ -1817,7 +1900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>68</v>
       </c>
@@ -1843,7 +1926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>76</v>
       </c>
@@ -1869,7 +1952,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -1895,7 +1978,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>92</v>
       </c>
@@ -1921,7 +2004,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>100</v>
       </c>
@@ -1947,7 +2030,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>108</v>
       </c>
@@ -1973,7 +2056,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>116</v>
       </c>
@@ -1999,7 +2082,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>124</v>
       </c>
@@ -2025,7 +2108,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -2051,7 +2134,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>140</v>
       </c>
@@ -2077,7 +2160,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>148</v>
       </c>
@@ -2103,7 +2186,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>156</v>
       </c>
@@ -2129,7 +2212,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>164</v>
       </c>
@@ -2152,7 +2235,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>171</v>
       </c>
@@ -2175,7 +2258,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>178</v>
       </c>
@@ -2195,7 +2278,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>184</v>
       </c>
@@ -2215,7 +2298,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>190</v>
       </c>
@@ -2235,7 +2318,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>196</v>
       </c>
@@ -2255,7 +2338,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>202</v>
       </c>
@@ -2275,7 +2358,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>207</v>
       </c>
@@ -2295,7 +2378,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>212</v>
       </c>
@@ -2315,7 +2398,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>217</v>
       </c>
@@ -2332,7 +2415,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>222</v>
       </c>
@@ -2349,7 +2432,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>226</v>
       </c>
@@ -2366,7 +2449,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>230</v>
       </c>
@@ -2383,7 +2466,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>235</v>
       </c>
@@ -2400,7 +2483,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>240</v>
       </c>
@@ -2417,7 +2500,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>245</v>
       </c>
@@ -2434,7 +2517,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>250</v>
       </c>
@@ -2451,7 +2534,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>255</v>
       </c>
@@ -2468,7 +2551,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>260</v>
       </c>
@@ -2485,7 +2568,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" s="5" t="s">
         <v>359</v>
       </c>
@@ -2502,7 +2585,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>265</v>
       </c>
@@ -2516,7 +2599,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
         <v>272</v>
       </c>
@@ -2527,7 +2610,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G45" t="s">
         <v>275</v>
       </c>
@@ -2538,7 +2621,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G46" t="s">
         <v>278</v>
       </c>
@@ -2549,7 +2632,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>281</v>
       </c>
@@ -2560,7 +2643,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>284</v>
       </c>
@@ -2571,7 +2654,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G49" t="s">
         <v>287</v>
       </c>
@@ -2582,7 +2665,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G50" t="s">
         <v>290</v>
       </c>
@@ -2593,7 +2676,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
         <v>293</v>
       </c>
@@ -2604,7 +2687,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>295</v>
       </c>
@@ -2615,7 +2698,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
         <v>296</v>
       </c>
@@ -2623,15 +2706,18 @@
         <v>346</v>
       </c>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G54" t="s">
         <v>297</v>
       </c>
+      <c r="H54" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="I54" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G55" t="s">
         <v>298</v>
       </c>
@@ -2639,7 +2725,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G56" t="s">
         <v>299</v>
       </c>
@@ -2647,7 +2733,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G57" t="s">
         <v>300</v>
       </c>
@@ -2655,7 +2741,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G58" t="s">
         <v>301</v>
       </c>
@@ -2663,7 +2749,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G59" t="s">
         <v>302</v>
       </c>
@@ -2671,7 +2757,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G60" t="s">
         <v>303</v>
       </c>
@@ -2679,212 +2765,257 @@
         <v>265</v>
       </c>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G62" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="I62" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G63" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="I63" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G64" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I64" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G65" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I65" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G66" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I66" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G67" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I67" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G68" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I68" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G69" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G70" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I70" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G71" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I71" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G72" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I72" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G73" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I73" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G74" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I74" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G75" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I75" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G76" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I76" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G77" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="I77" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G78" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G79" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G80" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G81" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G82" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G84" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G85" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G88" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G89" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G90" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G91" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G92" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G94" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G95" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G96" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G97" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G98" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G99" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G100" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G101" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G102" t="s">
         <v>265</v>
       </c>
@@ -2892,6 +3023,7 @@
   </sheetData>
   <autoFilter ref="A3:I102" xr:uid="{3CCBC1CD-CC2F-455C-8B9B-5A132B98DEED}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>